--- a/ICHICrawler/ICHI_Beta_3.xlsx
+++ b/ICHICrawler/ICHI_Beta_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Web_Scraper\ICHICrawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515A27DD-C5E5-4A2C-BAD7-25618DB3DBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D479C2AA-1F82-4383-A9D1-B3C6DC392E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17815,18 +17815,13 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
-    <col min="3" max="3" width="25.625" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
-    <col min="5" max="5" width="43.75" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="49.375" customWidth="1"/>
+    <col min="2" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
